--- a/biology/Histoire de la zoologie et de la botanique/Walter_Frank_Raphael_Weldon/Walter_Frank_Raphael_Weldon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Walter_Frank_Raphael_Weldon/Walter_Frank_Raphael_Weldon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Frank Raphael Weldon est un zoologiste britannique, né le 15 mars 1860 à Highgate en Londres et mort à Oxford le 13 avril 1906.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le second fils de Walter Weldon, journaliste, chimiste et d’Anne Cotton. Il commence ses études en 1867 à l’University College de Londres avec l’intention de devenir médecin. En 1868, il passe au King's College de Londres, puis en 1878 au St John's College de Cambridge. Là, sous l’influence de Francis Maitland Balfour (1851-1882) il abandonne ses études de médecine pour s’orienter vers la zoologie. Après l’obtention de son diplôme en sciences naturelles en 1881, il part un an à la station de biologie marine de Naples. Il revient à Cambridge en 1882 où il devient démonstrateur de zoologie et donne des cours sur la morphologie des invertébrés. En 1886, il part étudier la faune marine des Bahamas.
 En 1889, découvrant un livre sur l’hérédité de Sir Francis Galton (1822-1911), Weldon comprend l’importance des méthodes statistiques pour l’étude des animaux. Il commence alors une étude statistique sur la morphologie de la crevette et fait paraître deux publications dans les Proceedings of the Royal Society marquant là le début de la biométrie.
@@ -547,7 +561,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The Dictionary of National Biography (Oxford University Press) (en anglais)</t>
         </is>
